--- a/data/plain.xlsx
+++ b/data/plain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dshvedchenko/projects/chnu/ml_2023S/lab4/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B1C653-31FE-B048-9D68-B26D19701971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C7C2F20-978B-6444-8482-A3CB872F6202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3440" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{E45D73C9-A17B-EF4B-AB7F-5F54C60889DF}"/>
   </bookViews>
@@ -241,7 +241,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -274,7 +274,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -592,7 +592,7 @@
   <dimension ref="A2:BO4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="AC3" sqref="AC3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -803,6 +803,98 @@
         <v>65</v>
       </c>
     </row>
+    <row r="3" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <v>6</v>
+      </c>
+      <c r="K3">
+        <v>23</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <v>45</v>
+      </c>
+      <c r="N3">
+        <v>7</v>
+      </c>
+      <c r="O3">
+        <v>8</v>
+      </c>
+      <c r="P3">
+        <v>4</v>
+      </c>
+      <c r="Q3">
+        <v>32</v>
+      </c>
+      <c r="R3">
+        <v>5</v>
+      </c>
+      <c r="S3">
+        <v>6</v>
+      </c>
+      <c r="T3">
+        <v>4</v>
+      </c>
+      <c r="U3">
+        <v>32</v>
+      </c>
+      <c r="V3">
+        <v>5</v>
+      </c>
+      <c r="W3">
+        <v>2</v>
+      </c>
+      <c r="X3">
+        <v>54</v>
+      </c>
+      <c r="Y3">
+        <v>2</v>
+      </c>
+      <c r="Z3">
+        <v>3</v>
+      </c>
+      <c r="AA3">
+        <v>2</v>
+      </c>
+      <c r="AB3">
+        <v>7</v>
+      </c>
+      <c r="AC3">
+        <v>3</v>
+      </c>
+      <c r="AD3">
+        <v>2</v>
+      </c>
+    </row>
     <row r="4" spans="1:67" x14ac:dyDescent="0.2">
       <c r="B4" s="1"/>
     </row>

--- a/data/plain.xlsx
+++ b/data/plain.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dshvedchenko/projects/chnu/ml_2023S/lab4/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C7C2F20-978B-6444-8482-A3CB872F6202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD0A56F-F149-0746-8834-55D37EADD26E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3440" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{E45D73C9-A17B-EF4B-AB7F-5F54C60889DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -240,9 +240,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -272,9 +269,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -589,17 +585,221 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD34F3A7-D060-C645-99A7-5823932AE9AA}">
-  <dimension ref="A2:BO4"/>
+  <dimension ref="A1:BO4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC3" sqref="AC3"/>
+      <selection activeCell="BC16" sqref="BC16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="67" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="67" width="5.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
+      </c>
+      <c r="D1">
+        <v>4</v>
+      </c>
+      <c r="E1">
+        <v>5</v>
+      </c>
+      <c r="F1">
+        <v>6</v>
+      </c>
+      <c r="G1">
+        <v>7</v>
+      </c>
+      <c r="H1">
+        <v>8</v>
+      </c>
+      <c r="I1">
+        <v>9</v>
+      </c>
+      <c r="J1">
+        <v>10</v>
+      </c>
+      <c r="K1">
+        <v>11</v>
+      </c>
+      <c r="L1">
+        <v>12</v>
+      </c>
+      <c r="M1">
+        <v>13</v>
+      </c>
+      <c r="N1">
+        <v>14</v>
+      </c>
+      <c r="O1">
+        <v>15</v>
+      </c>
+      <c r="P1">
+        <v>16</v>
+      </c>
+      <c r="Q1">
+        <v>17</v>
+      </c>
+      <c r="R1">
+        <v>18</v>
+      </c>
+      <c r="S1">
+        <v>19</v>
+      </c>
+      <c r="T1">
+        <v>20</v>
+      </c>
+      <c r="U1">
+        <v>21</v>
+      </c>
+      <c r="V1">
+        <v>22</v>
+      </c>
+      <c r="W1">
+        <v>23</v>
+      </c>
+      <c r="X1">
+        <v>24</v>
+      </c>
+      <c r="Y1">
+        <v>25</v>
+      </c>
+      <c r="Z1">
+        <v>26</v>
+      </c>
+      <c r="AA1">
+        <v>27</v>
+      </c>
+      <c r="AB1">
+        <v>28</v>
+      </c>
+      <c r="AC1">
+        <v>29</v>
+      </c>
+      <c r="AD1">
+        <v>30</v>
+      </c>
+      <c r="AE1">
+        <v>31</v>
+      </c>
+      <c r="AF1">
+        <v>32</v>
+      </c>
+      <c r="AG1">
+        <v>33</v>
+      </c>
+      <c r="AH1">
+        <v>34</v>
+      </c>
+      <c r="AI1">
+        <v>35</v>
+      </c>
+      <c r="AJ1">
+        <v>36</v>
+      </c>
+      <c r="AK1">
+        <v>37</v>
+      </c>
+      <c r="AL1">
+        <v>38</v>
+      </c>
+      <c r="AM1">
+        <v>39</v>
+      </c>
+      <c r="AN1">
+        <v>40</v>
+      </c>
+      <c r="AO1">
+        <v>41</v>
+      </c>
+      <c r="AP1">
+        <v>42</v>
+      </c>
+      <c r="AQ1">
+        <v>43</v>
+      </c>
+      <c r="AR1">
+        <v>44</v>
+      </c>
+      <c r="AS1">
+        <v>45</v>
+      </c>
+      <c r="AT1">
+        <v>46</v>
+      </c>
+      <c r="AU1">
+        <v>47</v>
+      </c>
+      <c r="AV1">
+        <v>48</v>
+      </c>
+      <c r="AW1">
+        <v>49</v>
+      </c>
+      <c r="AX1">
+        <v>50</v>
+      </c>
+      <c r="AY1">
+        <v>51</v>
+      </c>
+      <c r="AZ1">
+        <v>52</v>
+      </c>
+      <c r="BA1">
+        <v>53</v>
+      </c>
+      <c r="BB1">
+        <v>54</v>
+      </c>
+      <c r="BC1">
+        <v>55</v>
+      </c>
+      <c r="BD1">
+        <v>56</v>
+      </c>
+      <c r="BE1">
+        <v>57</v>
+      </c>
+      <c r="BF1">
+        <v>58</v>
+      </c>
+      <c r="BG1">
+        <v>59</v>
+      </c>
+      <c r="BH1">
+        <v>60</v>
+      </c>
+      <c r="BI1">
+        <v>61</v>
+      </c>
+      <c r="BJ1">
+        <v>62</v>
+      </c>
+      <c r="BK1">
+        <v>63</v>
+      </c>
+      <c r="BL1">
+        <v>64</v>
+      </c>
+      <c r="BM1">
+        <v>65</v>
+      </c>
+      <c r="BN1">
+        <v>66</v>
+      </c>
+      <c r="BO1">
+        <v>67</v>
+      </c>
+    </row>
     <row r="2" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
@@ -896,7 +1096,274 @@
       </c>
     </row>
     <row r="4" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="B4" s="1"/>
+      <c r="A4">
+        <f>SIN(3.14*A1/18)</f>
+        <v>0.17356104045380674</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ref="B4:BM4" si="0">SIN(3.14*B1/18)</f>
+        <v>0.34185384854620343</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>0.4997701026431024</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>0.64251644867120083</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>0.76575999649771331</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>0.86575983949234436</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>0.9394806051566188</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>0.98468459013058329</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>0.99999968293183461</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>0.98496101271549541</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>0.94002505985814744</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>0.86655580005626576</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>0.76678330251803806</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>0.64373603894964537</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="0"/>
+        <v>0.50114895801363823</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>0.34335011554640749</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="0"/>
+        <v>0.17512930173534375</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="0"/>
+        <v>1.5926529164868282E-3</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="0"/>
+        <v>-0.17199233892689444</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="0"/>
+        <v>-0.34035671441835597</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="0"/>
+        <v>-0.49838997958325082</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="0"/>
+        <v>-0.64129522862092192</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="0"/>
+        <v>-0.76473474809275888</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="0"/>
+        <v>-0.86496168288969943</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="0"/>
+        <v>-0.93893376742033274</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" si="0"/>
+        <v>-0.98440566984897548</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" si="0"/>
+        <v>-0.99999714638771797</v>
+      </c>
+      <c r="AB4">
+        <f t="shared" si="0"/>
+        <v>-0.98523493690255337</v>
+      </c>
+      <c r="AC4">
+        <f t="shared" si="0"/>
+        <v>-0.94056713014388493</v>
+      </c>
+      <c r="AD4">
+        <f t="shared" si="0"/>
+        <v>-0.86734956256247364</v>
+      </c>
+      <c r="AE4">
+        <f>SIN(3.14*AE1/18)</f>
+        <v>-0.76780466355807164</v>
+      </c>
+      <c r="AF4">
+        <f t="shared" si="0"/>
+        <v>-0.64495399636270923</v>
+      </c>
+      <c r="AG4">
+        <f t="shared" si="0"/>
+        <v>-0.50252654219732995</v>
+      </c>
+      <c r="AH4">
+        <f t="shared" si="0"/>
+        <v>-0.34484551162362032</v>
+      </c>
+      <c r="AI4">
+        <f t="shared" si="0"/>
+        <v>-0.17669711879353933</v>
+      </c>
+      <c r="AJ4">
+        <f t="shared" si="0"/>
+        <v>-3.1853017931379904E-3</v>
+      </c>
+      <c r="AK4">
+        <f t="shared" si="0"/>
+        <v>0.17042320113368781</v>
+      </c>
+      <c r="AL4">
+        <f t="shared" si="0"/>
+        <v>0.33885871696041381</v>
+      </c>
+      <c r="AM4">
+        <f t="shared" si="0"/>
+        <v>0.49700859233482858</v>
+      </c>
+      <c r="AN4">
+        <f t="shared" si="0"/>
+        <v>0.64007238189648819</v>
+      </c>
+      <c r="AO4">
+        <f t="shared" si="0"/>
+        <v>0.7637075599037636</v>
+      </c>
+      <c r="AP4">
+        <f t="shared" si="0"/>
+        <v>0.86416133227289094</v>
+      </c>
+      <c r="AQ4">
+        <f t="shared" si="0"/>
+        <v>0.93838454803636817</v>
+      </c>
+      <c r="AR4">
+        <f t="shared" si="0"/>
+        <v>0.9841242525781656</v>
+      </c>
+      <c r="AS4">
+        <f t="shared" si="0"/>
+        <v>0.99999207330591877</v>
+      </c>
+      <c r="AT4">
+        <f t="shared" si="0"/>
+        <v>0.9855063619969362</v>
+      </c>
+      <c r="AU4">
+        <f t="shared" si="0"/>
+        <v>0.94110681463884549</v>
+      </c>
+      <c r="AV4">
+        <f t="shared" si="0"/>
+        <v>0.86814112499755414</v>
+      </c>
+      <c r="AW4">
+        <f t="shared" si="0"/>
+        <v>0.768824077027085</v>
+      </c>
+      <c r="AX4">
+        <f t="shared" si="0"/>
+        <v>0.64617031782099088</v>
+      </c>
+      <c r="AY4">
+        <f t="shared" si="0"/>
+        <v>0.50390285169987237</v>
+      </c>
+      <c r="AZ4">
+        <f t="shared" si="0"/>
+        <v>0.34634003298470134</v>
+      </c>
+      <c r="BA4">
+        <f t="shared" si="0"/>
+        <v>0.1782644876515557</v>
+      </c>
+      <c r="BB4">
+        <f t="shared" si="0"/>
+        <v>4.7779425901285115E-3</v>
+      </c>
+      <c r="BC4">
+        <f>SIN(3.14*BC1/18)</f>
+        <v>-0.16885363105437678</v>
+      </c>
+      <c r="BD4">
+        <f t="shared" si="0"/>
+        <v>-0.33735985997211249</v>
+      </c>
+      <c r="BE4">
+        <f t="shared" si="0"/>
+        <v>-0.49562594440178659</v>
+      </c>
+      <c r="BF4">
+        <f t="shared" si="0"/>
+        <v>-0.63884791159970555</v>
+      </c>
+      <c r="BG4">
+        <f t="shared" si="0"/>
+        <v>-0.76267843453623618</v>
+      </c>
+      <c r="BH4">
+        <f t="shared" si="0"/>
+        <v>-0.8633587896720446</v>
+      </c>
+      <c r="BI4">
+        <f t="shared" si="0"/>
+        <v>-0.93783294839784437</v>
+      </c>
+      <c r="BJ4">
+        <f t="shared" si="0"/>
+        <v>-0.98384033903198131</v>
+      </c>
+      <c r="BK4">
+        <f t="shared" si="0"/>
+        <v>-0.99998446369930505</v>
+      </c>
+      <c r="BL4">
+        <f t="shared" si="0"/>
+        <v>-0.98577528731016195</v>
+      </c>
+      <c r="BM4">
+        <f t="shared" si="0"/>
+        <v>-0.94164411197409603</v>
+      </c>
+      <c r="BN4">
+        <f t="shared" ref="BN4:BO4" si="1">SIN(3.14*BN1/18)</f>
+        <v>-0.86893048535367301</v>
+      </c>
+      <c r="BO4">
+        <f t="shared" si="1"/>
+        <v>-0.76984154033929186</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/plain.xlsx
+++ b/data/plain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dshvedchenko/projects/chnu/ml_2023S/lab4/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD0A56F-F149-0746-8834-55D37EADD26E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC63C0A3-3031-1647-8D75-EE65207F0894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3440" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{E45D73C9-A17B-EF4B-AB7F-5F54C60889DF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="70">
   <si>
     <t>75.30</t>
   </si>
@@ -234,6 +234,18 @@
   </si>
   <si>
     <t>82.84</t>
+  </si>
+  <si>
+    <t>point</t>
+  </si>
+  <si>
+    <t>oil</t>
+  </si>
+  <si>
+    <t>random</t>
+  </si>
+  <si>
+    <t>sin</t>
   </si>
 </sst>
 </file>
@@ -585,782 +597,794 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD34F3A7-D060-C645-99A7-5823932AE9AA}">
-  <dimension ref="A1:BO4"/>
+  <dimension ref="A1:BP4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BC16" sqref="BC16"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="67" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="68" width="5.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A1">
+    <row r="1" spans="1:68" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1">
         <v>1</v>
       </c>
-      <c r="B1">
+      <c r="C1">
         <v>2</v>
       </c>
-      <c r="C1">
+      <c r="D1">
         <v>3</v>
       </c>
-      <c r="D1">
+      <c r="E1">
         <v>4</v>
       </c>
-      <c r="E1">
+      <c r="F1">
         <v>5</v>
       </c>
-      <c r="F1">
+      <c r="G1">
         <v>6</v>
       </c>
-      <c r="G1">
+      <c r="H1">
         <v>7</v>
       </c>
-      <c r="H1">
+      <c r="I1">
         <v>8</v>
       </c>
-      <c r="I1">
+      <c r="J1">
         <v>9</v>
       </c>
-      <c r="J1">
+      <c r="K1">
         <v>10</v>
       </c>
-      <c r="K1">
+      <c r="L1">
         <v>11</v>
       </c>
-      <c r="L1">
+      <c r="M1">
         <v>12</v>
       </c>
-      <c r="M1">
+      <c r="N1">
         <v>13</v>
       </c>
-      <c r="N1">
+      <c r="O1">
         <v>14</v>
       </c>
-      <c r="O1">
+      <c r="P1">
         <v>15</v>
       </c>
-      <c r="P1">
+      <c r="Q1">
         <v>16</v>
       </c>
-      <c r="Q1">
+      <c r="R1">
         <v>17</v>
       </c>
-      <c r="R1">
+      <c r="S1">
         <v>18</v>
       </c>
-      <c r="S1">
+      <c r="T1">
         <v>19</v>
       </c>
-      <c r="T1">
+      <c r="U1">
         <v>20</v>
       </c>
-      <c r="U1">
+      <c r="V1">
         <v>21</v>
       </c>
-      <c r="V1">
+      <c r="W1">
         <v>22</v>
       </c>
-      <c r="W1">
+      <c r="X1">
         <v>23</v>
       </c>
-      <c r="X1">
+      <c r="Y1">
         <v>24</v>
       </c>
-      <c r="Y1">
+      <c r="Z1">
         <v>25</v>
       </c>
-      <c r="Z1">
+      <c r="AA1">
         <v>26</v>
       </c>
-      <c r="AA1">
+      <c r="AB1">
         <v>27</v>
       </c>
-      <c r="AB1">
+      <c r="AC1">
         <v>28</v>
       </c>
-      <c r="AC1">
+      <c r="AD1">
         <v>29</v>
       </c>
-      <c r="AD1">
+      <c r="AE1">
         <v>30</v>
       </c>
-      <c r="AE1">
+      <c r="AF1">
         <v>31</v>
       </c>
-      <c r="AF1">
+      <c r="AG1">
         <v>32</v>
       </c>
-      <c r="AG1">
+      <c r="AH1">
         <v>33</v>
       </c>
-      <c r="AH1">
+      <c r="AI1">
         <v>34</v>
       </c>
-      <c r="AI1">
+      <c r="AJ1">
         <v>35</v>
       </c>
-      <c r="AJ1">
+      <c r="AK1">
         <v>36</v>
       </c>
-      <c r="AK1">
+      <c r="AL1">
         <v>37</v>
       </c>
-      <c r="AL1">
+      <c r="AM1">
         <v>38</v>
       </c>
-      <c r="AM1">
+      <c r="AN1">
         <v>39</v>
       </c>
-      <c r="AN1">
+      <c r="AO1">
         <v>40</v>
       </c>
-      <c r="AO1">
+      <c r="AP1">
         <v>41</v>
       </c>
-      <c r="AP1">
+      <c r="AQ1">
         <v>42</v>
       </c>
-      <c r="AQ1">
+      <c r="AR1">
         <v>43</v>
       </c>
-      <c r="AR1">
+      <c r="AS1">
         <v>44</v>
       </c>
-      <c r="AS1">
+      <c r="AT1">
         <v>45</v>
       </c>
-      <c r="AT1">
+      <c r="AU1">
         <v>46</v>
       </c>
-      <c r="AU1">
+      <c r="AV1">
         <v>47</v>
       </c>
-      <c r="AV1">
+      <c r="AW1">
         <v>48</v>
       </c>
-      <c r="AW1">
+      <c r="AX1">
         <v>49</v>
       </c>
-      <c r="AX1">
+      <c r="AY1">
         <v>50</v>
       </c>
-      <c r="AY1">
+      <c r="AZ1">
         <v>51</v>
       </c>
-      <c r="AZ1">
+      <c r="BA1">
         <v>52</v>
       </c>
-      <c r="BA1">
+      <c r="BB1">
         <v>53</v>
       </c>
-      <c r="BB1">
+      <c r="BC1">
         <v>54</v>
       </c>
-      <c r="BC1">
+      <c r="BD1">
         <v>55</v>
       </c>
-      <c r="BD1">
+      <c r="BE1">
         <v>56</v>
       </c>
-      <c r="BE1">
+      <c r="BF1">
         <v>57</v>
       </c>
-      <c r="BF1">
+      <c r="BG1">
         <v>58</v>
       </c>
-      <c r="BG1">
+      <c r="BH1">
         <v>59</v>
       </c>
-      <c r="BH1">
+      <c r="BI1">
         <v>60</v>
       </c>
-      <c r="BI1">
+      <c r="BJ1">
         <v>61</v>
       </c>
-      <c r="BJ1">
+      <c r="BK1">
         <v>62</v>
       </c>
-      <c r="BK1">
+      <c r="BL1">
         <v>63</v>
       </c>
-      <c r="BL1">
+      <c r="BM1">
         <v>64</v>
       </c>
-      <c r="BM1">
+      <c r="BN1">
         <v>65</v>
       </c>
-      <c r="BN1">
+      <c r="BO1">
         <v>66</v>
       </c>
-      <c r="BO1">
+      <c r="BP1">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>10</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>12</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>13</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>14</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>16</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>17</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>18</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>19</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>20</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>21</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>22</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>23</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>24</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>25</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>26</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>27</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>28</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>29</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>30</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>31</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>32</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>33</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>34</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" t="s">
         <v>35</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AL2" t="s">
         <v>36</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AM2" t="s">
         <v>37</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AN2" t="s">
         <v>8</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AO2" t="s">
         <v>38</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AP2" t="s">
         <v>39</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AQ2" t="s">
         <v>40</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AR2" t="s">
         <v>41</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AS2" t="s">
         <v>42</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AT2" t="s">
         <v>43</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AU2" t="s">
         <v>44</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AV2" t="s">
         <v>45</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AW2" t="s">
         <v>46</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="AX2" t="s">
         <v>47</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="AY2" t="s">
         <v>48</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="AZ2" t="s">
         <v>49</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="BA2" t="s">
         <v>50</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BB2" t="s">
         <v>51</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BC2" t="s">
         <v>52</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BD2" t="s">
         <v>53</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BE2" t="s">
         <v>54</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BF2" t="s">
         <v>55</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BG2" t="s">
         <v>56</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BH2" t="s">
         <v>57</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BI2" t="s">
         <v>58</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BJ2" t="s">
         <v>59</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="BK2" t="s">
         <v>60</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BL2" t="s">
         <v>61</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BM2" t="s">
         <v>62</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BN2" t="s">
         <v>63</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="BO2" t="s">
         <v>64</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="BP2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="3" spans="1:68" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>4</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>2</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>6</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>7</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>3</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>2</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>4</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>5</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>6</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>23</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>2</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>45</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>7</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>8</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>4</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>32</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>5</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>6</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>4</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>32</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>5</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>2</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>54</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>2</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>3</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>2</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>7</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>3</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <f>SIN(3.14*A1/18)</f>
+    <row r="4" spans="1:68" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4">
+        <f>SIN(3.14*B1/18)</f>
         <v>0.17356104045380674</v>
       </c>
-      <c r="B4">
-        <f t="shared" ref="B4:BM4" si="0">SIN(3.14*B1/18)</f>
+      <c r="C4">
+        <f t="shared" ref="C4:BN4" si="0">SIN(3.14*C1/18)</f>
         <v>0.34185384854620343</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <f t="shared" si="0"/>
         <v>0.4997701026431024</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <f t="shared" si="0"/>
         <v>0.64251644867120083</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <f t="shared" si="0"/>
         <v>0.76575999649771331</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <f t="shared" si="0"/>
         <v>0.86575983949234436</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <f t="shared" si="0"/>
         <v>0.9394806051566188</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <f t="shared" si="0"/>
         <v>0.98468459013058329</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <f t="shared" si="0"/>
         <v>0.99999968293183461</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <f t="shared" si="0"/>
         <v>0.98496101271549541</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <f t="shared" si="0"/>
         <v>0.94002505985814744</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <f t="shared" si="0"/>
         <v>0.86655580005626576</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <f t="shared" si="0"/>
         <v>0.76678330251803806</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <f t="shared" si="0"/>
         <v>0.64373603894964537</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <f t="shared" si="0"/>
         <v>0.50114895801363823</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <f t="shared" si="0"/>
         <v>0.34335011554640749</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <f t="shared" si="0"/>
         <v>0.17512930173534375</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <f t="shared" si="0"/>
         <v>1.5926529164868282E-3</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <f t="shared" si="0"/>
         <v>-0.17199233892689444</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <f t="shared" si="0"/>
         <v>-0.34035671441835597</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <f t="shared" si="0"/>
         <v>-0.49838997958325082</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <f t="shared" si="0"/>
         <v>-0.64129522862092192</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <f t="shared" si="0"/>
         <v>-0.76473474809275888</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <f t="shared" si="0"/>
         <v>-0.86496168288969943</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <f t="shared" si="0"/>
         <v>-0.93893376742033274</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <f t="shared" si="0"/>
         <v>-0.98440566984897548</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <f t="shared" si="0"/>
         <v>-0.99999714638771797</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <f t="shared" si="0"/>
         <v>-0.98523493690255337</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <f t="shared" si="0"/>
         <v>-0.94056713014388493</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <f t="shared" si="0"/>
         <v>-0.86734956256247364</v>
       </c>
-      <c r="AE4">
-        <f>SIN(3.14*AE1/18)</f>
+      <c r="AF4">
+        <f>SIN(3.14*AF1/18)</f>
         <v>-0.76780466355807164</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <f t="shared" si="0"/>
         <v>-0.64495399636270923</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <f t="shared" si="0"/>
         <v>-0.50252654219732995</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <f t="shared" si="0"/>
         <v>-0.34484551162362032</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <f t="shared" si="0"/>
         <v>-0.17669711879353933</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <f t="shared" si="0"/>
         <v>-3.1853017931379904E-3</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <f t="shared" si="0"/>
         <v>0.17042320113368781</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <f t="shared" si="0"/>
         <v>0.33885871696041381</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <f t="shared" si="0"/>
         <v>0.49700859233482858</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <f t="shared" si="0"/>
         <v>0.64007238189648819</v>
       </c>
-      <c r="AO4">
+      <c r="AP4">
         <f t="shared" si="0"/>
         <v>0.7637075599037636</v>
       </c>
-      <c r="AP4">
+      <c r="AQ4">
         <f t="shared" si="0"/>
         <v>0.86416133227289094</v>
       </c>
-      <c r="AQ4">
+      <c r="AR4">
         <f t="shared" si="0"/>
         <v>0.93838454803636817</v>
       </c>
-      <c r="AR4">
+      <c r="AS4">
         <f t="shared" si="0"/>
         <v>0.9841242525781656</v>
       </c>
-      <c r="AS4">
+      <c r="AT4">
         <f t="shared" si="0"/>
         <v>0.99999207330591877</v>
       </c>
-      <c r="AT4">
+      <c r="AU4">
         <f t="shared" si="0"/>
         <v>0.9855063619969362</v>
       </c>
-      <c r="AU4">
+      <c r="AV4">
         <f t="shared" si="0"/>
         <v>0.94110681463884549</v>
       </c>
-      <c r="AV4">
+      <c r="AW4">
         <f t="shared" si="0"/>
         <v>0.86814112499755414</v>
       </c>
-      <c r="AW4">
+      <c r="AX4">
         <f t="shared" si="0"/>
         <v>0.768824077027085</v>
       </c>
-      <c r="AX4">
+      <c r="AY4">
         <f t="shared" si="0"/>
         <v>0.64617031782099088</v>
       </c>
-      <c r="AY4">
+      <c r="AZ4">
         <f t="shared" si="0"/>
         <v>0.50390285169987237</v>
       </c>
-      <c r="AZ4">
+      <c r="BA4">
         <f t="shared" si="0"/>
         <v>0.34634003298470134</v>
       </c>
-      <c r="BA4">
+      <c r="BB4">
         <f t="shared" si="0"/>
         <v>0.1782644876515557</v>
       </c>
-      <c r="BB4">
+      <c r="BC4">
         <f t="shared" si="0"/>
         <v>4.7779425901285115E-3</v>
       </c>
-      <c r="BC4">
-        <f>SIN(3.14*BC1/18)</f>
+      <c r="BD4">
+        <f>SIN(3.14*BD1/18)</f>
         <v>-0.16885363105437678</v>
       </c>
-      <c r="BD4">
+      <c r="BE4">
         <f t="shared" si="0"/>
         <v>-0.33735985997211249</v>
       </c>
-      <c r="BE4">
+      <c r="BF4">
         <f t="shared" si="0"/>
         <v>-0.49562594440178659</v>
       </c>
-      <c r="BF4">
+      <c r="BG4">
         <f t="shared" si="0"/>
         <v>-0.63884791159970555</v>
       </c>
-      <c r="BG4">
+      <c r="BH4">
         <f t="shared" si="0"/>
         <v>-0.76267843453623618</v>
       </c>
-      <c r="BH4">
+      <c r="BI4">
         <f t="shared" si="0"/>
         <v>-0.8633587896720446</v>
       </c>
-      <c r="BI4">
+      <c r="BJ4">
         <f t="shared" si="0"/>
         <v>-0.93783294839784437</v>
       </c>
-      <c r="BJ4">
+      <c r="BK4">
         <f t="shared" si="0"/>
         <v>-0.98384033903198131</v>
       </c>
-      <c r="BK4">
+      <c r="BL4">
         <f t="shared" si="0"/>
         <v>-0.99998446369930505</v>
       </c>
-      <c r="BL4">
+      <c r="BM4">
         <f t="shared" si="0"/>
         <v>-0.98577528731016195</v>
       </c>
-      <c r="BM4">
+      <c r="BN4">
         <f t="shared" si="0"/>
         <v>-0.94164411197409603</v>
       </c>
-      <c r="BN4">
-        <f t="shared" ref="BN4:BO4" si="1">SIN(3.14*BN1/18)</f>
+      <c r="BO4">
+        <f t="shared" ref="BO4:BP4" si="1">SIN(3.14*BO1/18)</f>
         <v>-0.86893048535367301</v>
       </c>
-      <c r="BO4">
+      <c r="BP4">
         <f t="shared" si="1"/>
         <v>-0.76984154033929186</v>
       </c>
